--- a/Documentação/Gerência de Projeto/SADis_ItensDeTrabalho1.0.xlsx
+++ b/Documentação/Gerência de Projeto/SADis_ItensDeTrabalho1.0.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
-  <si>
-    <t>Nome/Descrição</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>Prioridade</t>
   </si>
@@ -69,9 +66,6 @@
     <t>Definir itens de trabalho para a iteração</t>
   </si>
   <si>
-    <t>Elaborar plano e projeto de testes</t>
-  </si>
-  <si>
     <t>Elaborar documento de Apresentação do projeto</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>·Modelagem de dados</t>
   </si>
   <si>
-    <t>·Principal responsável pelo andamento do projeto</t>
-  </si>
-  <si>
     <t>·Design e planejamento de arquitetura do produto</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>·Gerenciar a comunicação da equipe e stakeholders</t>
   </si>
   <si>
-    <t>Gerente de Requisitos / Gerente de Comunicação</t>
-  </si>
-  <si>
     <t>Wendel Araujo / Lucas Costa</t>
   </si>
   <si>
@@ -171,20 +159,41 @@
     <t>Iniciar a codificação da primeira iteração</t>
   </si>
   <si>
-    <t>SADis - Sistema de Aproveitamento de Disciplinas</t>
-  </si>
-  <si>
     <t>Desenvolvedor</t>
   </si>
   <si>
     <t>Gerente do Projeto</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Gerente de Requisitos / Analista</t>
+  </si>
+  <si>
+    <t>Responsável pelo andamento do projeto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SADis                                Itens de Trabalho                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Versão1.0</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -203,31 +212,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6D9EEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7B7B7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -392,16 +390,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -417,70 +412,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -789,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -806,80 +777,80 @@
     <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
@@ -891,19 +862,19 @@
     </row>
     <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -915,19 +886,19 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -939,19 +910,19 @@
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>8</v>
@@ -960,24 +931,24 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1">
         <v>24</v>
@@ -986,24 +957,24 @@
         <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1">
         <v>14</v>
@@ -1015,19 +986,19 @@
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1">
         <v>24</v>
@@ -1037,19 +1008,19 @@
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>12</v>
@@ -1058,24 +1029,24 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1">
         <v>9</v>
@@ -1084,443 +1055,423 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="1">
-        <v>6</v>
-      </c>
-      <c r="G18" s="1">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="C35" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I39" s="7"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I40" s="7"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I41" s="7"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I42" s="7"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I43" s="7"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I44" s="7"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I45" s="7"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I46" s="7"/>
+      <c r="I46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>

--- a/Documentação/Gerência de Projeto/SADis_ItensDeTrabalho1.0.xlsx
+++ b/Documentação/Gerência de Projeto/SADis_ItensDeTrabalho1.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Prioridade</t>
   </si>
@@ -415,6 +415,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -428,30 +452,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -778,17 +778,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -951,10 +951,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>33</v>
@@ -977,10 +977,10 @@
         <v>32</v>
       </c>
       <c r="F9" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1001,10 +1001,14 @@
         <v>34</v>
       </c>
       <c r="F10" s="1">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1198,8 +1202,12 @@
       <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,13 +1257,13 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="6"/>
@@ -1265,9 +1273,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="6"/>
@@ -1277,9 +1285,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1287,9 +1295,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1297,9 +1305,9 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1307,13 +1315,13 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="6"/>
@@ -1324,9 +1332,9 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1335,9 +1343,9 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="6"/>
@@ -1348,9 +1356,9 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1359,13 +1367,13 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="6"/>
@@ -1376,9 +1384,9 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="13" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="6"/>
@@ -1389,9 +1397,9 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="6"/>
@@ -1402,9 +1410,9 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="6"/>

--- a/Documentação/Gerência de Projeto/SADis_ItensDeTrabalho1.0.xlsx
+++ b/Documentação/Gerência de Projeto/SADis_ItensDeTrabalho1.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>Prioridade</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Elaborar o esboço sobre o projeto e produto</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
   </si>
   <si>
     <t>Definir itens de trabalho para a iteração</t>
@@ -760,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -779,7 +776,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -792,7 +789,7 @@
     </row>
     <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -818,7 +815,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -830,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -850,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
@@ -862,7 +859,7 @@
     </row>
     <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -874,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -886,7 +883,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -898,7 +895,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -910,7 +907,7 @@
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -922,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1">
         <v>8</v>
@@ -931,12 +928,12 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -948,7 +945,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1">
         <v>9</v>
@@ -957,12 +954,12 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -974,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
         <v>10</v>
@@ -986,7 +983,7 @@
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -995,10 +992,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1">
         <v>12</v>
@@ -1007,12 +1004,12 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -1024,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1">
         <v>12</v>
@@ -1033,12 +1030,12 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1050,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1">
         <v>9</v>
@@ -1059,12 +1056,12 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1076,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1">
         <v>10</v>
@@ -1088,7 +1085,7 @@
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -1100,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1">
         <v>5</v>
@@ -1110,7 +1107,7 @@
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
@@ -1122,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
@@ -1131,12 +1128,12 @@
         <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -1148,7 +1145,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1">
         <v>8</v>
@@ -1157,12 +1154,12 @@
         <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -1174,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1">
         <v>6</v>
@@ -1183,12 +1180,12 @@
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
@@ -1200,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1">
         <v>24</v>
@@ -1242,13 +1239,13 @@
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1258,13 +1255,13 @@
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1276,7 +1273,7 @@
       <c r="A24" s="11"/>
       <c r="B24" s="14"/>
       <c r="C24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1316,13 +1313,13 @@
     </row>
     <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1346,7 +1343,7 @@
       <c r="A30" s="11"/>
       <c r="B30" s="14"/>
       <c r="C30" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1368,13 +1365,13 @@
     </row>
     <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1387,7 +1384,7 @@
       <c r="A33" s="11"/>
       <c r="B33" s="14"/>
       <c r="C33" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1400,7 +1397,7 @@
       <c r="A34" s="11"/>
       <c r="B34" s="14"/>
       <c r="C34" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1413,7 +1410,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="15"/>
       <c r="C35" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
